--- a/employment_rates/HI/HI_data.xlsx
+++ b/employment_rates/HI/HI_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andy/Documents/GitHub/coronavirus-unemployment/employment_rates/HI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E55306A-147F-064F-A55A-9E217947D1BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8B02F4B-AB92-734A-A028-770639835640}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19660" tabRatio="685"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19660" tabRatio="685" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="State" sheetId="1" r:id="rId1"/>
@@ -23,11 +23,11 @@
     <sheet name="Lanai" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Hawaii Cty'!$A$1:$G$412</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Honolulu!$A$1:$G$414</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Kauai Cty'!$A$1:$G$412</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'Maui Cty'!$A$1:$G$412</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'Maui Isl'!$A$1:$I$417</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Hawaii Cty'!$A$1:$G$413</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Honolulu!$A$1:$G$415</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Kauai Cty'!$A$1:$G$413</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Maui Cty'!$A$1:$G$413</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'Maui Isl'!$A$1:$I$418</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">State!$5:$7</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4459" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4475" uniqueCount="588">
   <si>
     <t>Labor Force</t>
   </si>
@@ -1805,6 +1805,9 @@
   <si>
     <t>"May-2020</t>
   </si>
+  <si>
+    <t>Jun-2020</t>
+  </si>
 </sst>
 </file>
 
@@ -3036,11 +3039,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N595"/>
+  <dimension ref="A1:N596"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A554" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -17078,81 +17081,110 @@
     </row>
     <row r="587" spans="1:14" s="9" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A587" s="26" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="B587" s="25" t="s">
         <v>585</v>
       </c>
       <c r="C587" s="7">
-        <v>631600</v>
+        <v>624650</v>
       </c>
       <c r="D587" s="7">
-        <v>489750</v>
+        <v>478500</v>
       </c>
       <c r="E587" s="7">
-        <v>141850</v>
+        <v>146150</v>
       </c>
       <c r="F587" s="6">
-        <v>22.5</v>
+        <v>23.4</v>
       </c>
       <c r="G587" s="39"/>
       <c r="K587" s="6">
-        <v>58</v>
+        <v>57.3</v>
       </c>
       <c r="L587" s="6">
-        <v>45</v>
+        <v>43.9</v>
       </c>
       <c r="M587" s="39"/>
       <c r="N587" s="39"/>
     </row>
-    <row r="588" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A588" s="3" t="s">
+    <row r="588" spans="1:14" s="9" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A588" s="26" t="s">
+        <v>575</v>
+      </c>
+      <c r="B588" s="25" t="s">
+        <v>587</v>
+      </c>
+      <c r="C588" s="7">
+        <v>615100</v>
+      </c>
+      <c r="D588" s="7">
+        <v>526350</v>
+      </c>
+      <c r="E588" s="7">
+        <v>88750</v>
+      </c>
+      <c r="F588" s="6">
+        <v>14.4</v>
+      </c>
+      <c r="G588" s="39"/>
+      <c r="K588" s="6">
+        <v>56.5</v>
+      </c>
+      <c r="L588" s="6">
+        <v>48.3</v>
+      </c>
+      <c r="M588" s="39"/>
+      <c r="N588" s="39"/>
+    </row>
+    <row r="589" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A589" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B588" s="24"/>
-      <c r="C588" s="8"/>
-    </row>
-    <row r="589" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A589" s="1" t="s">
-        <v>430</v>
-      </c>
+      <c r="B589" s="24"/>
+      <c r="C589" s="8"/>
     </row>
     <row r="590" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A590" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="591" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A591" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="591" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A591" s="9" t="s">
+    <row r="592" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A592" s="9" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="592" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A592" s="62" t="s">
+    <row r="593" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A593" s="62" t="s">
         <v>531</v>
       </c>
-      <c r="B592" s="62"/>
-    </row>
-    <row r="593" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A593" s="9" t="s">
+      <c r="B593" s="62"/>
+    </row>
+    <row r="594" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A594" s="9" t="s">
         <v>517</v>
       </c>
-      <c r="M593" s="1" t="s">
+      <c r="M594" s="1" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="594" spans="1:13" ht="13" x14ac:dyDescent="0.15">
-      <c r="A594"/>
-    </row>
-    <row r="595" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="C595" s="8"/>
-      <c r="D595" s="8"/>
-      <c r="E595" s="8"/>
+    <row r="595" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A595"/>
+    </row>
+    <row r="596" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C596" s="8"/>
+      <c r="D596" s="8"/>
+      <c r="E596" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C5:F5"/>
-    <mergeCell ref="A592:B592"/>
+    <mergeCell ref="A593:B593"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.5" right="0" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
@@ -17166,12 +17198,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I610"/>
+  <dimension ref="A1:I611"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozenSplit"/>
-      <selection activeCell="K565" sqref="K565"/>
-      <selection pane="bottomLeft" activeCell="G37" sqref="G37"/>
+      <pane ySplit="3" topLeftCell="A374" activePane="bottomLeft" state="frozenSplit"/>
+      <selection sqref="A1:IV65536"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -24380,78 +24412,95 @@
     </row>
     <row r="405" spans="1:9" s="9" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A405" s="1" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="B405" s="25" t="s">
         <v>585</v>
       </c>
       <c r="C405" s="7">
-        <v>421100</v>
+        <v>417400</v>
       </c>
       <c r="D405" s="7">
-        <v>337450</v>
+        <v>330750</v>
       </c>
       <c r="E405" s="7">
-        <v>83700</v>
+        <v>86700</v>
       </c>
       <c r="F405" s="6">
-        <v>19.899999999999999</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="406" spans="1:9" s="9" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A406" s="1"/>
-      <c r="B406" s="43"/>
-      <c r="C406" s="32"/>
-      <c r="D406" s="32"/>
-      <c r="E406" s="32"/>
-      <c r="F406" s="36"/>
-      <c r="G406" s="39"/>
-      <c r="H406" s="39"/>
-      <c r="I406" s="39"/>
-    </row>
-    <row r="407" spans="1:9" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A407" s="3" t="s">
+      <c r="A406" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B406" s="25" t="s">
+        <v>587</v>
+      </c>
+      <c r="C406" s="7">
+        <v>414850</v>
+      </c>
+      <c r="D406" s="7">
+        <v>362800</v>
+      </c>
+      <c r="E406" s="7">
+        <v>52050</v>
+      </c>
+      <c r="F406" s="6">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9" s="9" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A407" s="1"/>
+      <c r="B407" s="43"/>
+      <c r="C407" s="32"/>
+      <c r="D407" s="32"/>
+      <c r="E407" s="32"/>
+      <c r="F407" s="36"/>
+      <c r="G407" s="39"/>
+      <c r="H407" s="39"/>
+      <c r="I407" s="39"/>
+    </row>
+    <row r="408" spans="1:9" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A408" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B407" s="1"/>
-      <c r="C407" s="8"/>
-    </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A408" s="1" t="s">
-        <v>430</v>
-      </c>
+      <c r="B408" s="1"/>
+      <c r="C408" s="8"/>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A409" s="1" t="s">
-        <v>17</v>
+        <v>430</v>
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A410" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A411" s="1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A411" s="9" t="s">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A412" s="9" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A412" s="62" t="s">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A413" s="62" t="s">
         <v>531</v>
       </c>
-      <c r="B412" s="62"/>
-    </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A413" s="9" t="s">
+      <c r="B413" s="62"/>
+    </row>
+    <row r="414" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A414" s="9" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B414" s="1"/>
-    </row>
-    <row r="581" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B581" s="28"/>
+    <row r="415" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B415" s="1"/>
     </row>
     <row r="582" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B582" s="28"/>
@@ -24459,11 +24508,11 @@
     <row r="583" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B583" s="28"/>
     </row>
-    <row r="585" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B585" s="28"/>
-    </row>
-    <row r="591" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B591" s="28"/>
+    <row r="584" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B584" s="28"/>
+    </row>
+    <row r="586" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B586" s="28"/>
     </row>
     <row r="592" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B592" s="28"/>
@@ -24508,10 +24557,10 @@
       <c r="B605" s="28"/>
     </row>
     <row r="606" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B606" s="31"/>
+      <c r="B606" s="28"/>
     </row>
     <row r="607" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B607" s="28"/>
+      <c r="B607" s="31"/>
     </row>
     <row r="608" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B608" s="28"/>
@@ -24521,11 +24570,14 @@
     </row>
     <row r="610" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B610" s="28"/>
+    </row>
+    <row r="611" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B611" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C5:F5"/>
-    <mergeCell ref="A412:B412"/>
+    <mergeCell ref="A413:B413"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
@@ -24539,12 +24591,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K606"/>
+  <dimension ref="A1:K607"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozenSplit"/>
-      <selection activeCell="K565" sqref="K565"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A372" activePane="bottomLeft" state="frozenSplit"/>
+      <selection sqref="A1:IV65536"/>
+      <selection pane="bottomLeft" activeCell="L395" sqref="L395"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -31759,83 +31811,103 @@
     </row>
     <row r="405" spans="1:9" s="9" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A405" s="26" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="B405" s="24" t="s">
         <v>585</v>
       </c>
       <c r="C405" s="8">
-        <v>88400</v>
+        <v>86550</v>
       </c>
       <c r="D405" s="7">
-        <v>69700</v>
+        <v>67250</v>
       </c>
       <c r="E405" s="8">
-        <v>18700</v>
+        <v>19350</v>
       </c>
       <c r="F405" s="33">
-        <v>21.1</v>
+        <v>22.3</v>
       </c>
       <c r="G405" s="39"/>
       <c r="H405" s="39"/>
       <c r="I405" s="39"/>
     </row>
-    <row r="406" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A406" s="3" t="s">
+    <row r="406" spans="1:9" s="9" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A406" s="26" t="s">
+        <v>575</v>
+      </c>
+      <c r="B406" s="24" t="s">
+        <v>587</v>
+      </c>
+      <c r="C406" s="8">
+        <v>85950</v>
+      </c>
+      <c r="D406" s="7">
+        <v>74200</v>
+      </c>
+      <c r="E406" s="8">
+        <v>11750</v>
+      </c>
+      <c r="F406" s="33">
+        <v>13.7</v>
+      </c>
+      <c r="G406" s="39"/>
+      <c r="H406" s="39"/>
+      <c r="I406" s="39"/>
+    </row>
+    <row r="407" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A407" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B406" s="29"/>
-    </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A407" s="1" t="s">
-        <v>430</v>
-      </c>
+      <c r="B407" s="29"/>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A408" s="1" t="s">
-        <v>17</v>
+        <v>430</v>
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A409" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A410" s="1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A410" s="9" t="s">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A411" s="9" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A411" s="62" t="s">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A412" s="62" t="s">
         <v>531</v>
       </c>
-      <c r="B411" s="62"/>
-    </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A412" s="9" t="s">
+      <c r="B412" s="62"/>
+    </row>
+    <row r="413" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A413" s="9" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="577" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B577" s="28"/>
     </row>
     <row r="578" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B578" s="28"/>
-      <c r="C578" s="1"/>
     </row>
     <row r="579" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B579" s="28"/>
       <c r="C579" s="1"/>
     </row>
     <row r="580" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B580" s="28"/>
       <c r="C580" s="1"/>
     </row>
     <row r="581" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B581" s="28"/>
       <c r="C581" s="1"/>
     </row>
     <row r="582" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B582" s="28"/>
       <c r="C582" s="1"/>
     </row>
     <row r="583" spans="2:3" x14ac:dyDescent="0.15">
@@ -31851,7 +31923,6 @@
       <c r="C586" s="1"/>
     </row>
     <row r="587" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B587" s="28"/>
       <c r="C587" s="1"/>
     </row>
     <row r="588" spans="2:3" x14ac:dyDescent="0.15">
@@ -31911,26 +31982,30 @@
       <c r="C601" s="1"/>
     </row>
     <row r="602" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B602" s="31"/>
+      <c r="B602" s="28"/>
       <c r="C602" s="1"/>
     </row>
     <row r="603" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B603" s="28"/>
+      <c r="B603" s="31"/>
       <c r="C603" s="1"/>
     </row>
     <row r="604" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B604" s="28"/>
+      <c r="C604" s="1"/>
     </row>
     <row r="605" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B605" s="28"/>
     </row>
     <row r="606" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B606" s="28"/>
+    </row>
+    <row r="607" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B607" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C5:F5"/>
-    <mergeCell ref="A411:B411"/>
+    <mergeCell ref="A412:B412"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.25" right="0" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
@@ -31944,11 +32019,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F605"/>
+  <dimension ref="A1:F606"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozenSplit"/>
-      <selection activeCell="K565" sqref="K565"/>
+      <pane ySplit="3" topLeftCell="A372" activePane="bottomLeft" state="frozenSplit"/>
+      <selection sqref="A1:IV65536"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -39146,84 +39221,101 @@
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A405" s="1" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="B405" s="24" t="s">
         <v>586</v>
       </c>
       <c r="C405" s="8">
-        <v>36900</v>
+        <v>35900</v>
       </c>
       <c r="D405" s="7">
-        <v>25850</v>
+        <v>24600</v>
       </c>
       <c r="E405" s="8">
-        <v>11000</v>
+        <v>11300</v>
       </c>
       <c r="F405" s="6">
-        <v>29.9</v>
-      </c>
-    </row>
-    <row r="406" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A406" s="3" t="s">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A406" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B406" s="24" t="s">
+        <v>587</v>
+      </c>
+      <c r="C406" s="8">
+        <v>34550</v>
+      </c>
+      <c r="D406" s="7">
+        <v>27550</v>
+      </c>
+      <c r="E406" s="8">
+        <v>7000</v>
+      </c>
+      <c r="F406" s="6">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A407" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B406" s="25"/>
-      <c r="C406" s="7"/>
-      <c r="D406" s="7"/>
-      <c r="E406" s="37"/>
-      <c r="F406" s="36"/>
-    </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A407" s="1" t="s">
-        <v>430</v>
-      </c>
+      <c r="B407" s="25"/>
+      <c r="C407" s="7"/>
+      <c r="D407" s="7"/>
+      <c r="E407" s="37"/>
+      <c r="F407" s="36"/>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A408" s="1" t="s">
-        <v>17</v>
+        <v>430</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A409" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A410" s="1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A410" s="9" t="s">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A411" s="9" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A411" s="62" t="s">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A412" s="62" t="s">
         <v>531</v>
       </c>
-      <c r="B411" s="62"/>
-    </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A412" s="9" t="s">
+      <c r="B412" s="62"/>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A413" s="9" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="576" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B576" s="28"/>
     </row>
     <row r="577" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B577" s="28"/>
-      <c r="C577" s="1"/>
     </row>
     <row r="578" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B578" s="28"/>
       <c r="C578" s="1"/>
     </row>
     <row r="579" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B579" s="28"/>
       <c r="C579" s="1"/>
     </row>
     <row r="580" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B580" s="28"/>
       <c r="C580" s="1"/>
     </row>
     <row r="581" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B581" s="28"/>
       <c r="C581" s="1"/>
     </row>
     <row r="582" spans="2:3" x14ac:dyDescent="0.15">
@@ -39239,7 +39331,6 @@
       <c r="C585" s="1"/>
     </row>
     <row r="586" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B586" s="28"/>
       <c r="C586" s="1"/>
     </row>
     <row r="587" spans="2:3" x14ac:dyDescent="0.15">
@@ -39299,26 +39390,30 @@
       <c r="C600" s="1"/>
     </row>
     <row r="601" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B601" s="31"/>
+      <c r="B601" s="28"/>
       <c r="C601" s="1"/>
     </row>
     <row r="602" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B602" s="28"/>
+      <c r="B602" s="31"/>
       <c r="C602" s="1"/>
     </row>
     <row r="603" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B603" s="28"/>
+      <c r="C603" s="1"/>
     </row>
     <row r="604" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B604" s="28"/>
     </row>
     <row r="605" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B605" s="28"/>
+    </row>
+    <row r="606" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B606" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C5:F5"/>
-    <mergeCell ref="A411:B411"/>
+    <mergeCell ref="A412:B412"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.25" right="0" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
@@ -39332,11 +39427,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F606"/>
+  <dimension ref="A1:F607"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozenSplit"/>
-      <selection activeCell="K565" sqref="K565"/>
+      <pane ySplit="3" topLeftCell="A374" activePane="bottomLeft" state="frozenSplit"/>
+      <selection sqref="A1:IV65536"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -46534,79 +46629,96 @@
     </row>
     <row r="405" spans="1:6" s="9" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A405" s="1" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="B405" s="24" t="s">
         <v>585</v>
       </c>
       <c r="C405" s="8">
-        <v>85200</v>
+        <v>84750</v>
       </c>
       <c r="D405" s="7">
-        <v>56750</v>
+        <v>55950</v>
       </c>
       <c r="E405" s="8">
-        <v>28400</v>
+        <v>28850</v>
       </c>
       <c r="F405" s="6">
-        <v>33.4</v>
-      </c>
-    </row>
-    <row r="406" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A406" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" s="9" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A406" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B406" s="24" t="s">
+        <v>587</v>
+      </c>
+      <c r="C406" s="8">
+        <v>79750</v>
+      </c>
+      <c r="D406" s="7">
+        <v>61750</v>
+      </c>
+      <c r="E406" s="8">
+        <v>18000</v>
+      </c>
+      <c r="F406" s="6">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A407" s="3" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A407" s="1" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A408" s="1" t="s">
-        <v>17</v>
+        <v>430</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A409" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A410" s="1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A410" s="9" t="s">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A411" s="9" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A411" s="62" t="s">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A412" s="62" t="s">
         <v>531</v>
       </c>
-      <c r="B411" s="62"/>
-    </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A412" s="9" t="s">
+      <c r="B412" s="62"/>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A413" s="9" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="577" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B577" s="28"/>
     </row>
     <row r="578" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B578" s="28"/>
-      <c r="C578" s="1"/>
     </row>
     <row r="579" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B579" s="28"/>
       <c r="C579" s="1"/>
     </row>
     <row r="580" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B580" s="28"/>
       <c r="C580" s="1"/>
     </row>
     <row r="581" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B581" s="28"/>
       <c r="C581" s="1"/>
     </row>
     <row r="582" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B582" s="28"/>
       <c r="C582" s="1"/>
     </row>
     <row r="583" spans="2:3" x14ac:dyDescent="0.15">
@@ -46622,7 +46734,6 @@
       <c r="C586" s="1"/>
     </row>
     <row r="587" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B587" s="28"/>
       <c r="C587" s="1"/>
     </row>
     <row r="588" spans="2:3" x14ac:dyDescent="0.15">
@@ -46682,26 +46793,30 @@
       <c r="C601" s="1"/>
     </row>
     <row r="602" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B602" s="31"/>
+      <c r="B602" s="28"/>
       <c r="C602" s="1"/>
     </row>
     <row r="603" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B603" s="28"/>
+      <c r="B603" s="31"/>
       <c r="C603" s="1"/>
     </row>
     <row r="604" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B604" s="28"/>
+      <c r="C604" s="1"/>
     </row>
     <row r="605" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B605" s="28"/>
     </row>
     <row r="606" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B606" s="28"/>
+    </row>
+    <row r="607" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B607" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C5:F5"/>
-    <mergeCell ref="A411:B411"/>
+    <mergeCell ref="A412:B412"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.25" right="0" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
@@ -46715,11 +46830,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J609"/>
+  <dimension ref="A1:J610"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A367" activePane="bottomLeft" state="frozenSplit"/>
-      <selection activeCell="K565" sqref="K565"/>
+      <pane ySplit="3" topLeftCell="A370" activePane="bottomLeft" state="frozenSplit"/>
+      <selection sqref="A1:IV65536"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -54248,79 +54363,99 @@
     </row>
     <row r="406" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A406" s="50" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="B406" s="51" t="s">
         <v>585</v>
       </c>
       <c r="C406" s="52">
-        <v>81200</v>
+        <v>80950</v>
       </c>
       <c r="D406" s="53">
-        <v>53200</v>
+        <v>52500</v>
       </c>
       <c r="E406" s="52">
-        <v>28000</v>
+        <v>28450</v>
       </c>
       <c r="F406" s="54">
-        <v>34.5</v>
+        <v>35.1</v>
       </c>
       <c r="G406" s="49"/>
       <c r="H406" s="49"/>
       <c r="I406" s="39"/>
     </row>
-    <row r="407" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A407" s="3" t="s">
+    <row r="407" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A407" s="50" t="s">
+        <v>579</v>
+      </c>
+      <c r="B407" s="51" t="s">
+        <v>587</v>
+      </c>
+      <c r="C407" s="52">
+        <v>75850</v>
+      </c>
+      <c r="D407" s="53">
+        <v>58100</v>
+      </c>
+      <c r="E407" s="52">
+        <v>17750</v>
+      </c>
+      <c r="F407" s="54">
+        <v>23.4</v>
+      </c>
+      <c r="G407" s="49"/>
+      <c r="H407" s="49"/>
+      <c r="I407" s="39"/>
+    </row>
+    <row r="408" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A408" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B407" s="1"/>
-    </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A408" s="1" t="s">
-        <v>430</v>
-      </c>
+      <c r="B408" s="1"/>
     </row>
     <row r="409" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A409" s="1" t="s">
-        <v>17</v>
+        <v>430</v>
       </c>
     </row>
     <row r="410" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A410" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="411" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A411" s="1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A411" s="9" t="s">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A412" s="9" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A412" s="62" t="s">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A413" s="62" t="s">
         <v>532</v>
       </c>
-      <c r="B412" s="62"/>
-      <c r="I412" s="1" t="s">
+      <c r="B413" s="62"/>
+      <c r="I413" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="J412" s="1" t="s">
+      <c r="J413" s="1" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A413" s="9" t="s">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A414" s="9" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A414" s="62"/>
-      <c r="B414" s="62"/>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A418" s="9"/>
-    </row>
-    <row r="584" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B584" s="28"/>
+    <row r="415" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A415" s="62"/>
+      <c r="B415" s="62"/>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A419" s="9"/>
     </row>
     <row r="585" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B585" s="28"/>
@@ -54328,8 +54463,8 @@
     <row r="586" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B586" s="28"/>
     </row>
-    <row r="588" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B588" s="28"/>
+    <row r="587" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B587" s="28"/>
     </row>
     <row r="589" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B589" s="28"/>
@@ -54377,11 +54512,10 @@
       <c r="B603" s="28"/>
     </row>
     <row r="604" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B604" s="31"/>
+      <c r="B604" s="28"/>
     </row>
     <row r="605" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B605" s="28"/>
-      <c r="C605" s="1"/>
+      <c r="B605" s="31"/>
     </row>
     <row r="606" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B606" s="28"/>
@@ -54389,18 +54523,22 @@
     </row>
     <row r="607" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B607" s="28"/>
+      <c r="C607" s="1"/>
     </row>
     <row r="608" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B608" s="28"/>
     </row>
     <row r="609" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B609" s="28"/>
+    </row>
+    <row r="610" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B610" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C5:F5"/>
-    <mergeCell ref="A414:B414"/>
-    <mergeCell ref="A412:B412"/>
+    <mergeCell ref="A415:B415"/>
+    <mergeCell ref="A413:B413"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.25" right="0" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
@@ -54414,12 +54552,12 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J605"/>
+  <dimension ref="A1:J606"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A367" activePane="bottomLeft" state="frozenSplit"/>
-      <selection activeCell="K565" sqref="K565"/>
-      <selection pane="bottomLeft" activeCell="M430" sqref="M430"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A370" activePane="bottomLeft" state="frozenSplit"/>
+      <selection sqref="A1:IV65536"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -61950,65 +62088,85 @@
     </row>
     <row r="406" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A406" s="50" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="B406" s="51" t="s">
         <v>585</v>
       </c>
       <c r="C406" s="53">
-        <v>2300</v>
+        <v>2150</v>
       </c>
       <c r="D406" s="53">
-        <v>2000</v>
+        <v>1850</v>
       </c>
       <c r="E406" s="53">
         <v>300</v>
       </c>
       <c r="F406" s="54">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="G406" s="49"/>
       <c r="H406" s="49"/>
       <c r="I406" s="39"/>
     </row>
-    <row r="407" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A407" s="3" t="s">
+    <row r="407" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A407" s="50" t="s">
+        <v>579</v>
+      </c>
+      <c r="B407" s="51" t="s">
+        <v>587</v>
+      </c>
+      <c r="C407" s="53">
+        <v>2200</v>
+      </c>
+      <c r="D407" s="53">
+        <v>2000</v>
+      </c>
+      <c r="E407" s="53">
+        <v>200</v>
+      </c>
+      <c r="F407" s="54">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G407" s="49"/>
+      <c r="H407" s="49"/>
+      <c r="I407" s="39"/>
+    </row>
+    <row r="408" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A408" s="3" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A408" s="1" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A409" s="1" t="s">
-        <v>17</v>
+        <v>430</v>
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A410" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A411" s="1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A411" s="9" t="s">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A412" s="9" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A412" s="62" t="s">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A413" s="62" t="s">
         <v>532</v>
       </c>
-      <c r="B412" s="62"/>
-    </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A413" s="9" t="s">
+      <c r="B413" s="62"/>
+    </row>
+    <row r="414" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A414" s="9" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="580" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B580" s="28"/>
     </row>
     <row r="581" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B581" s="28"/>
@@ -62019,8 +62177,8 @@
     <row r="583" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B583" s="28"/>
     </row>
-    <row r="585" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B585" s="28"/>
+    <row r="584" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B584" s="28"/>
     </row>
     <row r="586" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B586" s="28"/>
@@ -62065,11 +62223,10 @@
       <c r="B599" s="28"/>
     </row>
     <row r="600" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B600" s="31"/>
+      <c r="B600" s="28"/>
     </row>
     <row r="601" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B601" s="28"/>
-      <c r="C601" s="1"/>
+      <c r="B601" s="31"/>
     </row>
     <row r="602" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B602" s="28"/>
@@ -62077,17 +62234,21 @@
     </row>
     <row r="603" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B603" s="28"/>
+      <c r="C603" s="1"/>
     </row>
     <row r="604" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B604" s="28"/>
     </row>
     <row r="605" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B605" s="28"/>
+    </row>
+    <row r="606" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B606" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C5:F5"/>
-    <mergeCell ref="A412:B412"/>
+    <mergeCell ref="A413:B413"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.25" right="0" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
@@ -62101,11 +62262,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J608"/>
+  <dimension ref="A1:J609"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozenSplit"/>
-      <selection activeCell="K565" sqref="K565"/>
+      <pane ySplit="3" topLeftCell="A372" activePane="bottomLeft" state="frozenSplit"/>
+      <selection sqref="A1:IV65536"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -69576,7 +69737,7 @@
     </row>
     <row r="405" spans="1:8" s="9" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A405" s="50" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="B405" s="58" t="s">
         <v>585</v>
@@ -69585,78 +69746,96 @@
         <v>1650</v>
       </c>
       <c r="D405" s="53">
-        <v>1600</v>
+        <v>1550</v>
       </c>
       <c r="E405" s="53">
         <v>100</v>
       </c>
       <c r="F405" s="54">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="G405" s="49"/>
       <c r="H405" s="49"/>
     </row>
-    <row r="406" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A406" s="3" t="s">
+    <row r="406" spans="1:8" s="9" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A406" s="50" t="s">
+        <v>579</v>
+      </c>
+      <c r="B406" s="58" t="s">
+        <v>587</v>
+      </c>
+      <c r="C406" s="53">
+        <v>1700</v>
+      </c>
+      <c r="D406" s="53">
+        <v>1650</v>
+      </c>
+      <c r="E406" s="53">
+        <v>50</v>
+      </c>
+      <c r="F406" s="54">
+        <v>3.1</v>
+      </c>
+      <c r="G406" s="49"/>
+      <c r="H406" s="49"/>
+    </row>
+    <row r="407" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A407" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B406" s="28"/>
-    </row>
-    <row r="407" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A407" s="3"/>
-    </row>
-    <row r="408" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A408" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="E408" s="2" t="s">
-        <v>428</v>
-      </c>
+      <c r="B407" s="28"/>
+    </row>
+    <row r="408" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A408" s="3"/>
     </row>
     <row r="409" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A409" s="1" t="s">
-        <v>17</v>
+        <v>430</v>
+      </c>
+      <c r="E409" s="2" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="410" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A410" s="1" t="s">
-        <v>534</v>
+        <v>17</v>
       </c>
     </row>
     <row r="411" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A411" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A412" s="1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="412" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A412" s="9" t="s">
+    <row r="413" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A413" s="9" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A413" s="62" t="s">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A414" s="62" t="s">
         <v>532</v>
       </c>
-      <c r="B413" s="62"/>
-    </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A414" s="9" t="s">
+      <c r="B414" s="62"/>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A415" s="9" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A415" s="62"/>
-      <c r="B415" s="62"/>
-    </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A417" s="9"/>
-    </row>
-    <row r="583" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B583" s="28"/>
+    <row r="416" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A416" s="62"/>
+      <c r="B416" s="62"/>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A418" s="9"/>
     </row>
     <row r="584" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B584" s="28"/>
-      <c r="C584" s="1"/>
     </row>
     <row r="585" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B585" s="28"/>
@@ -69667,10 +69846,10 @@
       <c r="C586" s="1"/>
     </row>
     <row r="587" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B587" s="28"/>
       <c r="C587" s="1"/>
     </row>
     <row r="588" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B588" s="28"/>
       <c r="C588" s="1"/>
     </row>
     <row r="589" spans="2:3" x14ac:dyDescent="0.15">
@@ -69734,27 +69913,31 @@
       <c r="C603" s="1"/>
     </row>
     <row r="604" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B604" s="31"/>
+      <c r="B604" s="28"/>
       <c r="C604" s="1"/>
     </row>
     <row r="605" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B605" s="28"/>
+      <c r="B605" s="31"/>
       <c r="C605" s="1"/>
     </row>
     <row r="606" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B606" s="28"/>
+      <c r="C606" s="1"/>
     </row>
     <row r="607" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B607" s="28"/>
     </row>
     <row r="608" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B608" s="28"/>
+    </row>
+    <row r="609" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B609" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C5:F5"/>
-    <mergeCell ref="A415:B415"/>
-    <mergeCell ref="A413:B413"/>
+    <mergeCell ref="A416:B416"/>
+    <mergeCell ref="A414:B414"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.25" right="0" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
